--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ngf-Sorcs3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ngf-Sorcs3.xlsx
@@ -528,34 +528,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2143436666666667</v>
+        <v>0.1930666666666666</v>
       </c>
       <c r="H2">
-        <v>0.643031</v>
+        <v>0.5791999999999999</v>
       </c>
       <c r="I2">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="J2">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02042966666666667</v>
+        <v>0.1670496666666667</v>
       </c>
       <c r="N2">
-        <v>0.061289</v>
+        <v>0.501149</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.004378969662111112</v>
+        <v>0.03225172231111111</v>
       </c>
       <c r="R2">
-        <v>0.039410726959</v>
+        <v>0.2902655008</v>
       </c>
       <c r="S2">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="T2">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>1.998447</v>
       </c>
       <c r="I3">
-        <v>0.07117713108058832</v>
+        <v>0.04457951877603724</v>
       </c>
       <c r="J3">
-        <v>0.07117713108058832</v>
+        <v>0.04457951877603725</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.02042966666666667</v>
+        <v>0.1670496666666667</v>
       </c>
       <c r="N3">
-        <v>0.061289</v>
+        <v>0.501149</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01360920202033333</v>
+        <v>0.1112799684003333</v>
       </c>
       <c r="R3">
-        <v>0.122482818183</v>
+        <v>1.001519715603</v>
       </c>
       <c r="S3">
-        <v>0.07117713108058832</v>
+        <v>0.04457951877603724</v>
       </c>
       <c r="T3">
-        <v>0.07117713108058832</v>
+        <v>0.04457951877603725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.478538666666667</v>
+        <v>14.08372266666667</v>
       </c>
       <c r="H4">
-        <v>25.435616</v>
+        <v>42.251168</v>
       </c>
       <c r="I4">
-        <v>0.9059205343686921</v>
+        <v>0.9425002200035847</v>
       </c>
       <c r="J4">
-        <v>0.9059205343686921</v>
+        <v>0.9425002200035848</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02042966666666667</v>
+        <v>0.1670496666666667</v>
       </c>
       <c r="N4">
-        <v>0.061289</v>
+        <v>0.501149</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1732137187804444</v>
+        <v>2.352681176892444</v>
       </c>
       <c r="R4">
-        <v>1.558923469024</v>
+        <v>21.174130592032</v>
       </c>
       <c r="S4">
-        <v>0.9059205343686921</v>
+        <v>0.9425002200035847</v>
       </c>
       <c r="T4">
-        <v>0.9059205343686921</v>
+        <v>0.9425002200035848</v>
       </c>
     </row>
   </sheetData>
